--- a/docs/Excel/InputExcel.xlsx
+++ b/docs/Excel/InputExcel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lama\Documents\bak\source2\additionalFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lama\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4FDD2E-F551-4D37-845E-2707FAFBD7F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACABC66-1FE7-4DCC-B681-C90E1EDB7BF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{15DCA7BB-0F62-4344-B0CB-004519468C23}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{15DCA7BB-0F62-4344-B0CB-004519468C23}"/>
   </bookViews>
   <sheets>
     <sheet name="Technici" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="433">
   <si>
     <t>Email</t>
   </si>
@@ -48,48 +48,18 @@
     <t>Jméno</t>
   </si>
   <si>
-    <t>Karel</t>
-  </si>
-  <si>
-    <t>Darel</t>
-  </si>
-  <si>
-    <t>karel@sarel.cz</t>
-  </si>
-  <si>
-    <t>717979848</t>
-  </si>
-  <si>
-    <t>420717979848</t>
-  </si>
-  <si>
     <t>Telefon</t>
   </si>
   <si>
     <t>Tým</t>
   </si>
   <si>
-    <t>Karlovci</t>
-  </si>
-  <si>
     <t>Email vedoucího týmu</t>
   </si>
   <si>
-    <t>Orel</t>
-  </si>
-  <si>
-    <t>Sarel</t>
-  </si>
-  <si>
-    <t>orel@sarel.cz</t>
-  </si>
-  <si>
     <t>Popis Klienta</t>
   </si>
   <si>
-    <t>Karlín</t>
-  </si>
-  <si>
     <t>Poznámka</t>
   </si>
   <si>
@@ -102,15 +72,6 @@
     <t>kód Lokace</t>
   </si>
   <si>
-    <t>Hotel</t>
-  </si>
-  <si>
-    <t>Peter</t>
-  </si>
-  <si>
-    <t>Meter</t>
-  </si>
-  <si>
     <t>Telefon Kontaktu</t>
   </si>
   <si>
@@ -129,97 +90,1252 @@
     <t>Kód Lokace</t>
   </si>
   <si>
-    <t>arel@parel.cz</t>
-  </si>
-  <si>
-    <t>Marel@sarel.cz</t>
-  </si>
-  <si>
     <t>email Technika</t>
   </si>
   <si>
-    <t>asd</t>
-  </si>
-  <si>
-    <t>asf</t>
-  </si>
-  <si>
-    <t>Marel</t>
-  </si>
-  <si>
-    <t>Arel</t>
-  </si>
-  <si>
-    <t>marel@se.cz</t>
-  </si>
-  <si>
-    <t>Parel</t>
-  </si>
-  <si>
-    <t>546654189</t>
-  </si>
-  <si>
     <t>Jméno Ulice</t>
   </si>
   <si>
     <t>Adresa</t>
   </si>
   <si>
-    <t>Karetní</t>
-  </si>
-  <si>
-    <t>60/15</t>
-  </si>
-  <si>
     <t>Popis lokace</t>
   </si>
   <si>
     <t>Popis Nadřízeného(klienta)</t>
   </si>
   <si>
-    <t>65161261651</t>
-  </si>
-  <si>
     <t>Stav</t>
   </si>
   <si>
     <t>Starting</t>
   </si>
   <si>
-    <t>Škola</t>
-  </si>
-  <si>
-    <t>Velryby</t>
-  </si>
-  <si>
-    <t>Sek</t>
-  </si>
-  <si>
-    <t>mek</t>
-  </si>
-  <si>
-    <t>sek@mek.cz</t>
-  </si>
-  <si>
-    <t>123456678</t>
-  </si>
-  <si>
-    <t>Místo</t>
-  </si>
-  <si>
-    <t>starting</t>
-  </si>
-  <si>
     <t>Pavel</t>
   </si>
   <si>
-    <t>147456987412</t>
-  </si>
-  <si>
-    <t>Obří</t>
-  </si>
-  <si>
-    <t>17/60</t>
+    <t>Lew</t>
+  </si>
+  <si>
+    <t>Whittam</t>
+  </si>
+  <si>
+    <t>lwhittam0@histats.com</t>
+  </si>
+  <si>
+    <t>Meredith</t>
+  </si>
+  <si>
+    <t>Staning</t>
+  </si>
+  <si>
+    <t>mstaning1@mail.ru</t>
+  </si>
+  <si>
+    <t>Loralyn</t>
+  </si>
+  <si>
+    <t>Gorden</t>
+  </si>
+  <si>
+    <t>lgorden2@globo.com</t>
+  </si>
+  <si>
+    <t>Elva</t>
+  </si>
+  <si>
+    <t>Alejandri</t>
+  </si>
+  <si>
+    <t>ealejandri3@nba.com</t>
+  </si>
+  <si>
+    <t>Amos</t>
+  </si>
+  <si>
+    <t>Lumpkin</t>
+  </si>
+  <si>
+    <t>alumpkin4@bbc.co.uk</t>
+  </si>
+  <si>
+    <t>Hermina</t>
+  </si>
+  <si>
+    <t>Marishenko</t>
+  </si>
+  <si>
+    <t>hmarishenko5@jalbum.net</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Van der Beek</t>
+  </si>
+  <si>
+    <t>mvanderbeek6@histats.com</t>
+  </si>
+  <si>
+    <t>Jobey</t>
+  </si>
+  <si>
+    <t>Hufton</t>
+  </si>
+  <si>
+    <t>jhufton7@china.com.cn</t>
+  </si>
+  <si>
+    <t>Augustine</t>
+  </si>
+  <si>
+    <t>Fincken</t>
+  </si>
+  <si>
+    <t>afincken8@amazon.de</t>
+  </si>
+  <si>
+    <t>Zelda</t>
+  </si>
+  <si>
+    <t>Adshad</t>
+  </si>
+  <si>
+    <t>zadshad9@apache.org</t>
+  </si>
+  <si>
+    <t>Dione</t>
+  </si>
+  <si>
+    <t>Cartledge</t>
+  </si>
+  <si>
+    <t>dcartledgea@nba.com</t>
+  </si>
+  <si>
+    <t>Decca</t>
+  </si>
+  <si>
+    <t>Crowther</t>
+  </si>
+  <si>
+    <t>dcrowtherb@jiathis.com</t>
+  </si>
+  <si>
+    <t>Babara</t>
+  </si>
+  <si>
+    <t>Pycock</t>
+  </si>
+  <si>
+    <t>bpycockc@aboutads.info</t>
+  </si>
+  <si>
+    <t>Orelie</t>
+  </si>
+  <si>
+    <t>McKenna</t>
+  </si>
+  <si>
+    <t>omckennad@prlog.org</t>
+  </si>
+  <si>
+    <t>Dike</t>
+  </si>
+  <si>
+    <t>pdikee@w3.org</t>
+  </si>
+  <si>
+    <t>Marcelia</t>
+  </si>
+  <si>
+    <t>Dach</t>
+  </si>
+  <si>
+    <t>mdachf@theatlantic.com</t>
+  </si>
+  <si>
+    <t>Stefania</t>
+  </si>
+  <si>
+    <t>De Mattia</t>
+  </si>
+  <si>
+    <t>sdemattiag@nba.com</t>
+  </si>
+  <si>
+    <t>Kippar</t>
+  </si>
+  <si>
+    <t>Comolli</t>
+  </si>
+  <si>
+    <t>kcomollih@sciencedirect.com</t>
+  </si>
+  <si>
+    <t>Sarena</t>
+  </si>
+  <si>
+    <t>Fagg</t>
+  </si>
+  <si>
+    <t>sfaggi@home.pl</t>
+  </si>
+  <si>
+    <t>Melony</t>
+  </si>
+  <si>
+    <t>Jendas</t>
+  </si>
+  <si>
+    <t>mjendasj@shinystat.com</t>
+  </si>
+  <si>
+    <t>Audra</t>
+  </si>
+  <si>
+    <t>Kemmis</t>
+  </si>
+  <si>
+    <t>akemmisk@goo.ne.jp</t>
+  </si>
+  <si>
+    <t>Patrizius</t>
+  </si>
+  <si>
+    <t>Pittam</t>
+  </si>
+  <si>
+    <t>ppittaml@vinaora.com</t>
+  </si>
+  <si>
+    <t>Madelena</t>
+  </si>
+  <si>
+    <t>Kitchingham</t>
+  </si>
+  <si>
+    <t>mkitchinghamm@vkontakte.ru</t>
+  </si>
+  <si>
+    <t>Orson</t>
+  </si>
+  <si>
+    <t>Spender</t>
+  </si>
+  <si>
+    <t>ospendern@nasa.gov</t>
+  </si>
+  <si>
+    <t>Jecho</t>
+  </si>
+  <si>
+    <t>Bernt</t>
+  </si>
+  <si>
+    <t>jbernto@addtoany.com</t>
+  </si>
+  <si>
+    <t>Lilia</t>
+  </si>
+  <si>
+    <t>Kull</t>
+  </si>
+  <si>
+    <t>lkullp@umich.edu</t>
+  </si>
+  <si>
+    <t>Bernarr</t>
+  </si>
+  <si>
+    <t>Higgan</t>
+  </si>
+  <si>
+    <t>bhigganq@engadget.com</t>
+  </si>
+  <si>
+    <t>Verna</t>
+  </si>
+  <si>
+    <t>Crat</t>
+  </si>
+  <si>
+    <t>vcratr@amazon.de</t>
+  </si>
+  <si>
+    <t>Greta</t>
+  </si>
+  <si>
+    <t>Tanby</t>
+  </si>
+  <si>
+    <t>gtanbys@noaa.gov</t>
+  </si>
+  <si>
+    <t>Gill</t>
+  </si>
+  <si>
+    <t>Roome</t>
+  </si>
+  <si>
+    <t>groomet@wisc.edu</t>
+  </si>
+  <si>
+    <t>Fedora</t>
+  </si>
+  <si>
+    <t>Thorburn</t>
+  </si>
+  <si>
+    <t>fthorburnu@creativecommons.org</t>
+  </si>
+  <si>
+    <t>Ambur</t>
+  </si>
+  <si>
+    <t>Pace</t>
+  </si>
+  <si>
+    <t>apacev@washingtonpost.com</t>
+  </si>
+  <si>
+    <t>Farrah</t>
+  </si>
+  <si>
+    <t>Cauley</t>
+  </si>
+  <si>
+    <t>fcauleyw@cocolog-nifty.com</t>
+  </si>
+  <si>
+    <t>Benedetto</t>
+  </si>
+  <si>
+    <t>Pechard</t>
+  </si>
+  <si>
+    <t>bpechardx@biblegateway.com</t>
+  </si>
+  <si>
+    <t>Althea</t>
+  </si>
+  <si>
+    <t>Kearford</t>
+  </si>
+  <si>
+    <t>akearfordy@biblegateway.com</t>
+  </si>
+  <si>
+    <t>Chiarra</t>
+  </si>
+  <si>
+    <t>Kail</t>
+  </si>
+  <si>
+    <t>ckailz@stanford.edu</t>
+  </si>
+  <si>
+    <t>Hillery</t>
+  </si>
+  <si>
+    <t>Philipsson</t>
+  </si>
+  <si>
+    <t>hphilipsson10@webnode.com</t>
+  </si>
+  <si>
+    <t>Corilla</t>
+  </si>
+  <si>
+    <t>Tart</t>
+  </si>
+  <si>
+    <t>ctart11@ucsd.edu</t>
+  </si>
+  <si>
+    <t>Charo</t>
+  </si>
+  <si>
+    <t>Triplet</t>
+  </si>
+  <si>
+    <t>ctriplet12@skype.com</t>
+  </si>
+  <si>
+    <t>Arri</t>
+  </si>
+  <si>
+    <t>Pietersen</t>
+  </si>
+  <si>
+    <t>apietersen13@skyrock.com</t>
+  </si>
+  <si>
+    <t>Bruis</t>
+  </si>
+  <si>
+    <t>Francesch</t>
+  </si>
+  <si>
+    <t>bfrancesch14@nyu.edu</t>
+  </si>
+  <si>
+    <t>Kettie</t>
+  </si>
+  <si>
+    <t>McGeoch</t>
+  </si>
+  <si>
+    <t>kmcgeoch15@squidoo.com</t>
+  </si>
+  <si>
+    <t>Ferris</t>
+  </si>
+  <si>
+    <t>Cranfield</t>
+  </si>
+  <si>
+    <t>fcranfield16@dmoz.org</t>
+  </si>
+  <si>
+    <t>Tito</t>
+  </si>
+  <si>
+    <t>Gianni</t>
+  </si>
+  <si>
+    <t>tgianni17@telegraph.co.uk</t>
+  </si>
+  <si>
+    <t>Libbi</t>
+  </si>
+  <si>
+    <t>Leask</t>
+  </si>
+  <si>
+    <t>lleask18@seesaa.net</t>
+  </si>
+  <si>
+    <t>Pacorro</t>
+  </si>
+  <si>
+    <t>Takle</t>
+  </si>
+  <si>
+    <t>ptakle19@t-online.de</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>Huddlestone</t>
+  </si>
+  <si>
+    <t>mhuddlestone1a@google.co.jp</t>
+  </si>
+  <si>
+    <t>Viviene</t>
+  </si>
+  <si>
+    <t>Chadbourne</t>
+  </si>
+  <si>
+    <t>vchadbourne1b@xrea.com</t>
+  </si>
+  <si>
+    <t>Garland</t>
+  </si>
+  <si>
+    <t>Sheere</t>
+  </si>
+  <si>
+    <t>gsheere1c@typepad.com</t>
+  </si>
+  <si>
+    <t>Lorettalorna</t>
+  </si>
+  <si>
+    <t>Albery</t>
+  </si>
+  <si>
+    <t>lalbery1d@alexa.com</t>
+  </si>
+  <si>
+    <t>Namfix</t>
+  </si>
+  <si>
+    <t>Cardguard</t>
+  </si>
+  <si>
+    <t>Voyatouch</t>
+  </si>
+  <si>
+    <t>Flowdesk</t>
+  </si>
+  <si>
+    <t>Domainer</t>
+  </si>
+  <si>
+    <t>Holdlamis</t>
+  </si>
+  <si>
+    <t>Bamity</t>
+  </si>
+  <si>
+    <t>Ventosanzap</t>
+  </si>
+  <si>
+    <t>Tin</t>
+  </si>
+  <si>
+    <t>Andalax</t>
+  </si>
+  <si>
+    <t>Bitchip</t>
+  </si>
+  <si>
+    <t>Y-Solowarm</t>
+  </si>
+  <si>
+    <t>Job</t>
+  </si>
+  <si>
+    <t>Zacharia</t>
+  </si>
+  <si>
+    <t>Leve</t>
+  </si>
+  <si>
+    <t>zleve0@hexun.com</t>
+  </si>
+  <si>
+    <t>Gembucket</t>
+  </si>
+  <si>
+    <t>Berenice</t>
+  </si>
+  <si>
+    <t>Stower</t>
+  </si>
+  <si>
+    <t>bstower1@mayoclinic.com</t>
+  </si>
+  <si>
+    <t>Clarabelle</t>
+  </si>
+  <si>
+    <t>O'Shesnan</t>
+  </si>
+  <si>
+    <t>coshesnan2@vk.com</t>
+  </si>
+  <si>
+    <t>Bytecard</t>
+  </si>
+  <si>
+    <t>Murial</t>
+  </si>
+  <si>
+    <t>Moncey</t>
+  </si>
+  <si>
+    <t>mmoncey3@acquirethisname.com</t>
+  </si>
+  <si>
+    <t>Zulema</t>
+  </si>
+  <si>
+    <t>Gillespey</t>
+  </si>
+  <si>
+    <t>zgillespey4@earthlink.net</t>
+  </si>
+  <si>
+    <t>Fintone</t>
+  </si>
+  <si>
+    <t>Merla</t>
+  </si>
+  <si>
+    <t>Carnegie</t>
+  </si>
+  <si>
+    <t>mcarnegie5@cdbaby.com</t>
+  </si>
+  <si>
+    <t>Pannier</t>
+  </si>
+  <si>
+    <t>Corinne</t>
+  </si>
+  <si>
+    <t>Echlin</t>
+  </si>
+  <si>
+    <t>cechlin6@simplemachines.org</t>
+  </si>
+  <si>
+    <t>Aerified</t>
+  </si>
+  <si>
+    <t>Bartlet</t>
+  </si>
+  <si>
+    <t>Iapico</t>
+  </si>
+  <si>
+    <t>biapico7@51.la</t>
+  </si>
+  <si>
+    <t>Toughjoyfax</t>
+  </si>
+  <si>
+    <t>Dionisio</t>
+  </si>
+  <si>
+    <t>Clive</t>
+  </si>
+  <si>
+    <t>dclive8@census.gov</t>
+  </si>
+  <si>
+    <t>Hatity</t>
+  </si>
+  <si>
+    <t>Mose</t>
+  </si>
+  <si>
+    <t>Martusov</t>
+  </si>
+  <si>
+    <t>mmartusov9@flavors.me</t>
+  </si>
+  <si>
+    <t>Gerald</t>
+  </si>
+  <si>
+    <t>Bloxsome</t>
+  </si>
+  <si>
+    <t>gbloxsomea@squidoo.com</t>
+  </si>
+  <si>
+    <t>Tampflex</t>
+  </si>
+  <si>
+    <t>Odetta</t>
+  </si>
+  <si>
+    <t>Rosborough</t>
+  </si>
+  <si>
+    <t>orosboroughb@so-net.ne.jp</t>
+  </si>
+  <si>
+    <t>Zoolab</t>
+  </si>
+  <si>
+    <t>Vasilis</t>
+  </si>
+  <si>
+    <t>Flode</t>
+  </si>
+  <si>
+    <t>vflodec@tinypic.com</t>
+  </si>
+  <si>
+    <t>Rani</t>
+  </si>
+  <si>
+    <t>Lackemann</t>
+  </si>
+  <si>
+    <t>rlackemannd@tumblr.com</t>
+  </si>
+  <si>
+    <t>Tres-Zap</t>
+  </si>
+  <si>
+    <t>Bitwolf</t>
+  </si>
+  <si>
+    <t>Zamit</t>
+  </si>
+  <si>
+    <t>Matsoft</t>
+  </si>
+  <si>
+    <t>Regrant</t>
+  </si>
+  <si>
+    <t>It</t>
+  </si>
+  <si>
+    <t>In use</t>
+  </si>
+  <si>
+    <t>Elizabet</t>
+  </si>
+  <si>
+    <t>Doogood</t>
+  </si>
+  <si>
+    <t>Sloan</t>
+  </si>
+  <si>
+    <t>Ronstring</t>
+  </si>
+  <si>
+    <t>Danny</t>
+  </si>
+  <si>
+    <t>Gavrieli</t>
+  </si>
+  <si>
+    <t>Melody</t>
+  </si>
+  <si>
+    <t>Raimondo</t>
+  </si>
+  <si>
+    <t>Gleadle</t>
+  </si>
+  <si>
+    <t>Kinsman</t>
+  </si>
+  <si>
+    <t>Collected</t>
+  </si>
+  <si>
+    <t>Duke</t>
+  </si>
+  <si>
+    <t>Birchwood</t>
+  </si>
+  <si>
+    <t>Brentwood</t>
+  </si>
+  <si>
+    <t>Katti</t>
+  </si>
+  <si>
+    <t>McRobbie</t>
+  </si>
+  <si>
+    <t>Montana</t>
+  </si>
+  <si>
+    <t>Vin</t>
+  </si>
+  <si>
+    <t>Sunfield</t>
+  </si>
+  <si>
+    <t>Fix San</t>
+  </si>
+  <si>
+    <t>Carrol</t>
+  </si>
+  <si>
+    <t>Whithorn</t>
+  </si>
+  <si>
+    <t>Hazelcrest</t>
+  </si>
+  <si>
+    <t>Voltsillam</t>
+  </si>
+  <si>
+    <t>Guinevere</t>
+  </si>
+  <si>
+    <t>Bold</t>
+  </si>
+  <si>
+    <t>Mayer</t>
+  </si>
+  <si>
+    <t>Opela</t>
+  </si>
+  <si>
+    <t>Carmela</t>
+  </si>
+  <si>
+    <t>Juorio</t>
+  </si>
+  <si>
+    <t>Morning</t>
+  </si>
+  <si>
+    <t>Tempsoft</t>
+  </si>
+  <si>
+    <t>Kip</t>
+  </si>
+  <si>
+    <t>Geydon</t>
+  </si>
+  <si>
+    <t>Lotheville</t>
+  </si>
+  <si>
+    <t>Ingra</t>
+  </si>
+  <si>
+    <t>Swarbrigg</t>
+  </si>
+  <si>
+    <t>Heffernan</t>
+  </si>
+  <si>
+    <t>Pancho</t>
+  </si>
+  <si>
+    <t>Kendell</t>
+  </si>
+  <si>
+    <t>Daystar</t>
+  </si>
+  <si>
+    <t>Cordey</t>
+  </si>
+  <si>
+    <t>Waliszewski</t>
+  </si>
+  <si>
+    <t>7th</t>
+  </si>
+  <si>
+    <t>Zontrax</t>
+  </si>
+  <si>
+    <t>Dav</t>
+  </si>
+  <si>
+    <t>Musselwhite</t>
+  </si>
+  <si>
+    <t>Butternut</t>
+  </si>
+  <si>
+    <t>Tresom</t>
+  </si>
+  <si>
+    <t>Ready for pickup</t>
+  </si>
+  <si>
+    <t>Brendon</t>
+  </si>
+  <si>
+    <t>McMenamin</t>
+  </si>
+  <si>
+    <t>Donald</t>
+  </si>
+  <si>
+    <t>Overhold</t>
+  </si>
+  <si>
+    <t>Tawnya</t>
+  </si>
+  <si>
+    <t>McGill</t>
+  </si>
+  <si>
+    <t>Oakridge</t>
+  </si>
+  <si>
+    <t>Vagram</t>
+  </si>
+  <si>
+    <t>Revkah</t>
+  </si>
+  <si>
+    <t>O'Kuddyhy</t>
+  </si>
+  <si>
+    <t>Esker</t>
+  </si>
+  <si>
+    <t>Otcom</t>
+  </si>
+  <si>
+    <t>Celina</t>
+  </si>
+  <si>
+    <t>Appleton</t>
+  </si>
+  <si>
+    <t>Prairie Rose</t>
+  </si>
+  <si>
+    <t>Cardify</t>
+  </si>
+  <si>
+    <t>Rora</t>
+  </si>
+  <si>
+    <t>Lafrentz</t>
+  </si>
+  <si>
+    <t>Buell</t>
+  </si>
+  <si>
+    <t>Temp</t>
+  </si>
+  <si>
+    <t>Briny</t>
+  </si>
+  <si>
+    <t>Smail</t>
+  </si>
+  <si>
+    <t>Division</t>
+  </si>
+  <si>
+    <t>Cookley</t>
+  </si>
+  <si>
+    <t>Marijo</t>
+  </si>
+  <si>
+    <t>Robic</t>
+  </si>
+  <si>
+    <t>Orin</t>
+  </si>
+  <si>
+    <t>Zathin</t>
+  </si>
+  <si>
+    <t>Katina</t>
+  </si>
+  <si>
+    <t>Maddinon</t>
+  </si>
+  <si>
+    <t>Cody</t>
+  </si>
+  <si>
+    <t>Keylex</t>
+  </si>
+  <si>
+    <t>Bartholemy</t>
+  </si>
+  <si>
+    <t>Nowakowska</t>
+  </si>
+  <si>
+    <t>Roth</t>
+  </si>
+  <si>
+    <t>Viki</t>
+  </si>
+  <si>
+    <t>Cordelle</t>
+  </si>
+  <si>
+    <t>Bunker Hill</t>
+  </si>
+  <si>
+    <t>Greg</t>
+  </si>
+  <si>
+    <t>Arnoult</t>
+  </si>
+  <si>
+    <t>Schmedeman</t>
+  </si>
+  <si>
+    <t>Zorah</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Barby</t>
+  </si>
+  <si>
+    <t>Dyanne</t>
+  </si>
+  <si>
+    <t>Marrows</t>
+  </si>
+  <si>
+    <t>Waubesa</t>
+  </si>
+  <si>
+    <t>Julie</t>
+  </si>
+  <si>
+    <t>Ancliff</t>
+  </si>
+  <si>
+    <t>Barnett</t>
+  </si>
+  <si>
+    <t>Esmaria</t>
+  </si>
+  <si>
+    <t>Stoate</t>
+  </si>
+  <si>
+    <t>Dennis</t>
+  </si>
+  <si>
+    <t>Lotlux</t>
+  </si>
+  <si>
+    <t>Saundra</t>
+  </si>
+  <si>
+    <t>Collcott</t>
+  </si>
+  <si>
+    <t>Vahlen</t>
+  </si>
+  <si>
+    <t>Elise</t>
+  </si>
+  <si>
+    <t>O'Brollachain</t>
+  </si>
+  <si>
+    <t>1st</t>
+  </si>
+  <si>
+    <t>Treeflex</t>
+  </si>
+  <si>
+    <t>Erskine</t>
+  </si>
+  <si>
+    <t>Rhyme</t>
+  </si>
+  <si>
+    <t>Lindbergh</t>
+  </si>
+  <si>
+    <t>Myles</t>
+  </si>
+  <si>
+    <t>Rosenfeld</t>
+  </si>
+  <si>
+    <t>Mitzi</t>
+  </si>
+  <si>
+    <t>Austin</t>
+  </si>
+  <si>
+    <t>Muir</t>
+  </si>
+  <si>
+    <t>Latlux</t>
+  </si>
+  <si>
+    <t>Jessa</t>
+  </si>
+  <si>
+    <t>Voden</t>
+  </si>
+  <si>
+    <t>American</t>
+  </si>
+  <si>
+    <t>Carling</t>
+  </si>
+  <si>
+    <t>Swinerd</t>
+  </si>
+  <si>
+    <t>Ramsey</t>
+  </si>
+  <si>
+    <t>Trippledex</t>
+  </si>
+  <si>
+    <t>Leoine</t>
+  </si>
+  <si>
+    <t>Linton</t>
+  </si>
+  <si>
+    <t>Towne</t>
+  </si>
+  <si>
+    <t>Clarice</t>
+  </si>
+  <si>
+    <t>Winwood</t>
+  </si>
+  <si>
+    <t>Stoughton</t>
+  </si>
+  <si>
+    <t>Nicolais</t>
+  </si>
+  <si>
+    <t>Randalson</t>
+  </si>
+  <si>
+    <t>Brickson Park</t>
+  </si>
+  <si>
+    <t>Span</t>
+  </si>
+  <si>
+    <t>Bridget</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>Hoffman</t>
+  </si>
+  <si>
+    <t>Stronghold</t>
+  </si>
+  <si>
+    <t>Garrot</t>
+  </si>
+  <si>
+    <t>Wash</t>
+  </si>
+  <si>
+    <t>Huxley</t>
+  </si>
+  <si>
+    <t>Alphard</t>
+  </si>
+  <si>
+    <t>Brockbank</t>
+  </si>
+  <si>
+    <t>Hallows</t>
+  </si>
+  <si>
+    <t>Alpha</t>
+  </si>
+  <si>
+    <t>Currie</t>
+  </si>
+  <si>
+    <t>Dottridge</t>
+  </si>
+  <si>
+    <t>Leroy</t>
+  </si>
+  <si>
+    <t>Elisabet</t>
+  </si>
+  <si>
+    <t>Venus</t>
+  </si>
+  <si>
+    <t>Nelson</t>
+  </si>
+  <si>
+    <t>Saunderson</t>
+  </si>
+  <si>
+    <t>Meates</t>
+  </si>
+  <si>
+    <t>Nancy</t>
+  </si>
+  <si>
+    <t>Fleur</t>
+  </si>
+  <si>
+    <t>Muehle</t>
+  </si>
+  <si>
+    <t>4th</t>
+  </si>
+  <si>
+    <t>Ragnar</t>
+  </si>
+  <si>
+    <t>Cheston</t>
+  </si>
+  <si>
+    <t>Columbus</t>
+  </si>
+  <si>
+    <t>Tamarah</t>
+  </si>
+  <si>
+    <t>Jouandet</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>Sashenka</t>
+  </si>
+  <si>
+    <t>Cheeney</t>
+  </si>
+  <si>
+    <t>Fair Oaks</t>
+  </si>
+  <si>
+    <t>Frants</t>
+  </si>
+  <si>
+    <t>Walsham</t>
+  </si>
+  <si>
+    <t>Chinook</t>
+  </si>
+  <si>
+    <t>Aliquam augue quam, sollicitudin vitae, consectetuer eget, rutrum at, lorem.</t>
+  </si>
+  <si>
+    <t>Sed ante.</t>
+  </si>
+  <si>
+    <t>Quisque ut erat. Curabitur gravida nisi at nibh.</t>
+  </si>
+  <si>
+    <t>Quisque id justo sit amet sapien dignissim vestibulum.</t>
+  </si>
+  <si>
+    <t>Mauris sit amet eros. Suspendisse accumsan tortor quis turpis.</t>
+  </si>
+  <si>
+    <t>Morbi non quam nec dui luctus rutrum.</t>
+  </si>
+  <si>
+    <t>Donec diam neque, vestibulum eget, vulputate ut, ultrices vel, augue. Vestibulum ante ipsum primis in faucibus orci luctus et ultrices posuere cubilia Curae; Donec pharetra, magna vestibulum aliquet ultrices, erat tortor sollicitudin mi, sit amet lobortis sapien sapien non mi.</t>
+  </si>
+  <si>
+    <t>Duis consequat dui nec nisi volutpat eleifend. Donec ut dolor.</t>
+  </si>
+  <si>
+    <t>Nulla justo. Aliquam quis turpis eget elit sodales scelerisque.</t>
+  </si>
+  <si>
+    <t>Nullam molestie nibh in lectus.</t>
+  </si>
+  <si>
+    <t>Nullam orci pede, venenatis non, sodales sed, tincidunt eu, felis. Fusce posuere felis sed lacus.</t>
+  </si>
+  <si>
+    <t>Aenean fermentum.</t>
+  </si>
+  <si>
+    <t>In sagittis dui vel nisl.</t>
+  </si>
+  <si>
+    <t>Mauris enim leo, rhoncus sed, vestibulum sit amet, cursus id, turpis. Integer aliquet, massa id lobortis convallis, tortor risus dapibus augue, vel accumsan tellus nisi eu orci.</t>
+  </si>
+  <si>
+    <t>Quisque erat eros, viverra eget, congue eget, semper rutrum, nulla. Nunc purus.</t>
+  </si>
+  <si>
+    <t>Aenean fermentum. Donec ut mauris eget massa tempor convallis.</t>
   </si>
 </sst>
 </file>
@@ -236,20 +1352,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -310,23 +1422,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hypertextový odkaz" xfId="1" builtinId="8"/>
+  <cellStyles count="3">
+    <cellStyle name="Normal" xfId="2" xr:uid="{B25563B8-E377-4330-ABF4-6D0F52195A12}"/>
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
+    <cellStyle name="Normální 2" xfId="1" xr:uid="{FE71B5CD-EC9B-4217-BF46-F53424A3D641}"/>
   </cellStyles>
   <dxfs count="19">
     <dxf>
@@ -524,8 +1642,11 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AEAFCA9A-533B-44D2-A09F-ACE7C250DDF8}" name="Tabulka572" displayName="Tabulka572" ref="A1:L1048576" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5">
-  <autoFilter ref="A1:L1048576" xr:uid="{95B0450B-A732-48F3-ADDA-CD9BECE2E1C7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AEAFCA9A-533B-44D2-A09F-ACE7C250DDF8}" name="Tabulka572" displayName="Tabulka572" ref="A1:L1048575" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5">
+  <autoFilter ref="A1:L1048575" xr:uid="{95B0450B-A732-48F3-ADDA-CD9BECE2E1C7}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L52">
+    <sortCondition ref="A1:A1048575"/>
+  </sortState>
   <tableColumns count="12">
     <tableColumn id="9" xr3:uid="{855456EF-AF5D-4B74-9AAD-3C0984361434}" name="kód Lokace"/>
     <tableColumn id="2" xr3:uid="{714FF481-FB75-4966-B4B0-64DF6B3F916A}" name="Jméno Týmu"/>
@@ -854,10 +1975,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7428E562-8580-4E16-84F3-18219C64CEEA}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -865,254 +1986,1558 @@
     <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>8</v>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="A2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="7">
+        <v>9509024951</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="7">
+        <v>3029861894</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" s="7">
+        <v>8321107213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="B5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2462930457</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="7">
+        <v>5047941807</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="7">
+        <v>6823019484</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="7">
+        <v>7108150479</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="7">
+        <v>2859583503</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D10" s="7">
+        <v>6331510296</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="B11" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="C11" s="7" t="s">
         <v>54</v>
       </c>
+      <c r="D11" s="7">
+        <v>8859669800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="7">
+        <v>6443851602</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="7">
+        <v>9274903916</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="7">
+        <v>2409739818</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="7">
+        <v>4539845940</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1015255192</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="7">
+        <v>5111893191</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="7">
+        <v>3097397302</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="7">
+        <v>6376041344</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="7">
+        <v>7579287132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="7">
+        <v>2476542765</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="7">
+        <v>9847213916</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="7">
+        <v>3368123574</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="7">
+        <v>2128612154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2251788847</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="7">
+        <v>5115514430</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" s="7">
+        <v>2434586960</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" s="7">
+        <v>9898332578</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" s="7">
+        <v>3406260804</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" s="7">
+        <v>3533902144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D31" s="7">
+        <v>4506982514</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D32" s="7">
+        <v>5145937970</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D33" s="7">
+        <v>9298917512</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D34" s="7">
+        <v>7281297858</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D35" s="7">
+        <v>1431396291</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D36" s="7">
+        <v>8562325158</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D37" s="7">
+        <v>6914079224</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D38" s="7">
+        <v>6776153231</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D39" s="7">
+        <v>7168849210</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D40" s="7">
+        <v>6033723880</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D41" s="7">
+        <v>1852609520</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D42" s="7">
+        <v>4593494367</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D43" s="7">
+        <v>7553958973</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D44" s="7">
+        <v>7902434233</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D45" s="7">
+        <v>6348963346</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D46" s="7">
+        <v>1504250168</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D47" s="7">
+        <v>1968000567</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D48" s="7">
+        <v>3985465507</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D49" s="7">
+        <v>9848590361</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D50" s="7">
+        <v>5409635169</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D51" s="7">
+        <v>8024607246</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{50A026F5-53AD-483B-929F-1AAFEAD26E39}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{07AED719-353D-49FD-9767-F66FFE145E94}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{1F7C6486-9BDB-4CA2-B8D5-5A7BF988947C}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{1E79FA82-AA42-4C27-92CD-C3BDF10FCCE7}"/>
-  </hyperlinks>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D9F6408-FE43-47F8-86B6-1EE65D248F68}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>32</v>
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="A2" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="1"/>
+      <c r="A4" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="7"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{17B93C4E-024A-416C-B0FD-957A56957F78}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{E79BD223-7FD7-4D3B-9F2F-77CA04FC7675}"/>
-    <hyperlink ref="C2" r:id="rId3" xr:uid="{C48E5CFF-7451-47A6-B1A7-0A9EB5F84E4F}"/>
-    <hyperlink ref="C3" r:id="rId4" xr:uid="{FDB9A2F0-93D2-4266-9202-0E5172B87FC2}"/>
-    <hyperlink ref="B4" r:id="rId5" xr:uid="{3A13B2E3-39C1-4400-8436-9FB96E99B89E}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E2D8DA0-551B-4355-B263-C96E4B579081}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D2" sqref="D2:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>8</v>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
+      <c r="A2" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2" s="9">
+        <v>4598602646</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="A3" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E3" s="9">
+        <v>7576979634</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E4" s="9">
+        <v>6516992009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="E5" s="9">
+        <v>7762119889</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E6" s="9">
+        <v>1078776098</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="E7" s="9">
+        <v>3064083067</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="E8" s="9">
+        <v>6987189327</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="E9" s="9">
+        <v>7837426620</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="E10" s="9">
+        <v>4387186524</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="E11" s="9">
+        <v>8346435192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="E12" s="9">
+        <v>3854671075</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="E13" s="9">
+        <v>2929964062</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="E14" s="9">
+        <v>8609477941</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="E15" s="9">
+        <v>7099798456</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{268E249C-2947-46E4-AE9E-A2C8336D6F3A}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{A35534CF-EFEC-49DD-BEAD-D040A2B891D9}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F12219FD-1C3A-424C-8787-C4A01EA7364C}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1123,159 +3548,1891 @@
     <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="E1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>4003</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="I2" s="10">
+        <v>2408952346</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="K2" s="10">
+        <v>8451</v>
+      </c>
+      <c r="L2" s="10">
+        <v>6726175908</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>4006</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="I3" s="10">
+        <v>8649248476</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="K3" s="10">
+        <v>6</v>
+      </c>
+      <c r="L3" s="10">
+        <v>8683073682</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>4007</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="I4" s="10">
+        <v>6303614008</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="K4" s="10">
+        <v>6479</v>
+      </c>
+      <c r="L4" s="10">
+        <v>5459959075</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>4008</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="I5" s="10">
+        <v>2414485151</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="K5" s="10">
+        <v>9588</v>
+      </c>
+      <c r="L5" s="10">
+        <v>2881596788</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>4011</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="I6" s="10">
+        <v>8685521510</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="K6" s="10">
+        <v>2</v>
+      </c>
+      <c r="L6" s="10">
+        <v>8854881503</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>4021</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="I7" s="10">
+        <v>8854454862</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="K7" s="10">
+        <v>43</v>
+      </c>
+      <c r="L7" s="10">
+        <v>3111237524</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>4023</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="I8" s="10">
+        <v>9986351488</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="K8" s="10">
+        <v>5</v>
+      </c>
+      <c r="L8" s="10">
+        <v>5313568826</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>4024</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="I9" s="10">
+        <v>4114374214</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="K9" s="10">
+        <v>40554</v>
+      </c>
+      <c r="L9" s="10">
+        <v>9707084545</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>4025</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="I10" s="10">
+        <v>8409134858</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="K10" s="10">
+        <v>93</v>
+      </c>
+      <c r="L10" s="10">
+        <v>7494100599</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>4035</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="I11" s="10">
+        <v>7044909081</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="K11" s="10">
+        <v>7</v>
+      </c>
+      <c r="L11" s="10">
+        <v>5015711238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
+        <v>4039</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="I12" s="10">
+        <v>3187232120</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="K12" s="10">
+        <v>576</v>
+      </c>
+      <c r="L12" s="10">
+        <v>2385466429</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>4042</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="I13" s="10">
+        <v>1439946688</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="K13" s="10">
+        <v>75</v>
+      </c>
+      <c r="L13" s="10">
+        <v>9311844794</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>4046</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="I14" s="10">
+        <v>8571447729</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="K14" s="10">
+        <v>6330</v>
+      </c>
+      <c r="L14" s="10">
+        <v>2292619130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>4048</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="I15" s="10">
+        <v>8162830238</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="K15" s="10">
+        <v>30</v>
+      </c>
+      <c r="L15" s="10">
+        <v>2598154219</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>4052</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="F16" s="11"/>
+      <c r="G16" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="I16" s="10">
+        <v>3468024162</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="K16" s="10">
+        <v>5950</v>
+      </c>
+      <c r="L16" s="10">
+        <v>5688690532</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>4059</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="I17" s="10">
+        <v>9625835309</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="K17" s="10">
+        <v>75</v>
+      </c>
+      <c r="L17" s="10">
+        <v>5135033662</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>4058</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="I18" s="10">
+        <v>5766973493</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="K18" s="10">
+        <v>88379</v>
+      </c>
+      <c r="L18" s="10">
+        <v>4397628079</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>4066</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="F19" s="11"/>
+      <c r="G19" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="I19" s="10">
+        <v>2144878679</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="K19" s="10">
+        <v>5238</v>
+      </c>
+      <c r="L19" s="10">
+        <v>6018346403</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>4069</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="I20" s="10">
+        <v>7411848771</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="K20" s="10">
+        <v>4</v>
+      </c>
+      <c r="L20" s="10">
+        <v>3219320800</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>4075</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="I21" s="10">
+        <v>8124305421</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="K21" s="10">
+        <v>548</v>
+      </c>
+      <c r="L21" s="10">
+        <v>8429532288</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <v>4076</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="F22" s="11"/>
+      <c r="G22" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="I22" s="10">
+        <v>1717577366</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="K22" s="10">
+        <v>5976</v>
+      </c>
+      <c r="L22" s="10">
+        <v>6192167816</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <v>4091</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="F23" s="11"/>
+      <c r="G23" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="I23" s="10">
+        <v>1369157702</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="K23" s="10">
+        <v>10</v>
+      </c>
+      <c r="L23" s="10">
+        <v>1483549251</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <v>4096</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="11"/>
+      <c r="G24" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="I24" s="10">
+        <v>4074101085</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="K24" s="10">
+        <v>597</v>
+      </c>
+      <c r="L24" s="10">
+        <v>9944423926</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
+        <v>4097</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="F25" s="11"/>
+      <c r="G25" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="I25" s="10">
+        <v>3179370401</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="K25" s="10">
+        <v>14</v>
+      </c>
+      <c r="L25" s="10">
+        <v>3426964410</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
+        <v>4101</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="I26" s="10">
+        <v>4946719036</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="K26" s="10">
+        <v>7</v>
+      </c>
+      <c r="L26" s="10">
+        <v>9702555456</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
+        <v>4100</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="F27" s="11"/>
+      <c r="G27" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="I27" s="10">
+        <v>9587791956</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="K27" s="10">
+        <v>60483</v>
+      </c>
+      <c r="L27" s="10">
+        <v>5943091952</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
+        <v>4112</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="F28" s="11"/>
+      <c r="G28" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="I28" s="10">
+        <v>9474729126</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="K28" s="10">
+        <v>68115</v>
+      </c>
+      <c r="L28" s="10">
+        <v>2067280075</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="10">
+        <v>4114</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="F29" s="11"/>
+      <c r="G29" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="I29" s="10">
+        <v>4669994685</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="K29" s="10">
+        <v>67</v>
+      </c>
+      <c r="L29" s="10">
+        <v>9632704137</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="10">
+        <v>4119</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="F30" s="11"/>
+      <c r="G30" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="I30" s="10">
+        <v>6958716737</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="K30" s="10">
+        <v>342</v>
+      </c>
+      <c r="L30" s="10">
+        <v>6306349694</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
+        <v>4125</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="I31" s="10">
+        <v>9702951305</v>
+      </c>
+      <c r="J31" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="K31" s="10">
+        <v>177</v>
+      </c>
+      <c r="L31" s="10">
+        <v>8191102661</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="10">
+        <v>4131</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="I32" s="10">
+        <v>9829273907</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="K32" s="10">
+        <v>0</v>
+      </c>
+      <c r="L32" s="10">
+        <v>2722505555</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="10">
+        <v>4132</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="F33" s="11"/>
+      <c r="G33" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="I33" s="10">
+        <v>1703607863</v>
+      </c>
+      <c r="J33" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="K33" s="10">
+        <v>11355</v>
+      </c>
+      <c r="L33" s="10">
+        <v>7315696610</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="10">
+        <v>4138</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="F34" s="11"/>
+      <c r="G34" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="I34" s="10">
+        <v>5995077353</v>
+      </c>
+      <c r="J34" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="K34" s="10">
+        <v>28192</v>
+      </c>
+      <c r="L34" s="10">
+        <v>9653053234</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="10">
+        <v>4141</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="F35" s="11"/>
+      <c r="G35" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="I35" s="10">
+        <v>6262728335</v>
+      </c>
+      <c r="J35" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="K35" s="10">
+        <v>7</v>
+      </c>
+      <c r="L35" s="10">
+        <v>2653754035</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="10">
+        <v>4144</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="F36" s="11"/>
+      <c r="G36" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="I36" s="10">
+        <v>4055983196</v>
+      </c>
+      <c r="J36" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="K36" s="10">
+        <v>74</v>
+      </c>
+      <c r="L36" s="10">
+        <v>5241437446</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="10">
+        <v>4151</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="I37" s="10">
+        <v>7146967860</v>
+      </c>
+      <c r="J37" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="K37" s="10">
+        <v>8</v>
+      </c>
+      <c r="L37" s="10">
+        <v>6746730824</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="10">
+        <v>4150</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="F38" s="11"/>
+      <c r="G38" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="I38" s="10">
+        <v>9664831598</v>
+      </c>
+      <c r="J38" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="K38" s="10">
+        <v>83</v>
+      </c>
+      <c r="L38" s="10">
+        <v>3411433163</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="10">
+        <v>4154</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="I39" s="10">
+        <v>3254558257</v>
+      </c>
+      <c r="J39" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="K39" s="10">
+        <v>6083</v>
+      </c>
+      <c r="L39" s="10">
+        <v>7834868941</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="10">
+        <v>4155</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="F40" s="11"/>
+      <c r="G40" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="I40" s="10">
+        <v>1017478516</v>
+      </c>
+      <c r="J40" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="K40" s="10">
+        <v>64</v>
+      </c>
+      <c r="L40" s="10">
+        <v>1268511540</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="10">
+        <v>4157</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="F41" s="11"/>
+      <c r="G41" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="I41" s="10">
+        <v>1103138673</v>
+      </c>
+      <c r="J41" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="K41" s="10">
+        <v>607</v>
+      </c>
+      <c r="L41" s="10">
+        <v>6551222443</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="10">
+        <v>4160</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="F42" s="11"/>
+      <c r="G42" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="I42" s="10">
+        <v>9352679270</v>
+      </c>
+      <c r="J42" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="K42" s="10">
+        <v>891</v>
+      </c>
+      <c r="L42" s="10">
+        <v>9175135964</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="10">
+        <v>4161</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="F43" s="11"/>
+      <c r="G43" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="I43" s="10">
+        <v>1214923519</v>
+      </c>
+      <c r="J43" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="K43" s="10">
+        <v>95890</v>
+      </c>
+      <c r="L43" s="10">
+        <v>9297877346</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="10">
+        <v>4178</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F44" s="11"/>
+      <c r="G44" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="I44" s="10">
+        <v>9583499484</v>
+      </c>
+      <c r="J44" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="K44" s="10">
+        <v>52504</v>
+      </c>
+      <c r="L44" s="10">
+        <v>5323974812</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="10">
+        <v>4180</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="H45" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="I45" s="10">
+        <v>8268826577</v>
+      </c>
+      <c r="J45" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="K45" s="10">
+        <v>7008</v>
+      </c>
+      <c r="L45" s="10">
+        <v>4625870869</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="10">
+        <v>4183</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="I46" s="10">
+        <v>9278097584</v>
+      </c>
+      <c r="J46" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="K46" s="10">
+        <v>142</v>
+      </c>
+      <c r="L46" s="10">
+        <v>5144703009</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="10">
+        <v>4184</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="I47" s="10">
+        <v>3001704267</v>
+      </c>
+      <c r="J47" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="K47" s="10">
+        <v>8</v>
+      </c>
+      <c r="L47" s="10">
+        <v>4823314971</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="10">
+        <v>4186</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F48" s="11"/>
+      <c r="G48" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="I48" s="10">
+        <v>6729093551</v>
+      </c>
+      <c r="J48" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="K48" s="10">
+        <v>37</v>
+      </c>
+      <c r="L48" s="10">
+        <v>5527763190</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="10">
+        <v>4187</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="F49" s="11"/>
+      <c r="G49" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="I49" s="10">
+        <v>8189409456</v>
+      </c>
+      <c r="J49" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="K49" s="10">
+        <v>547</v>
+      </c>
+      <c r="L49" s="10">
+        <v>4376388696</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="10">
+        <v>4195</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="H50" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="I50" s="10">
+        <v>9485807841</v>
+      </c>
+      <c r="J50" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="K50" s="10">
         <v>28</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>8004</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="L50" s="10">
+        <v>5998090114</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="10">
+        <v>4198</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="E51" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L2">
-        <v>845645195</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>8005</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L3">
-        <v>845645195</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>8006</v>
-      </c>
-      <c r="B4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J4" t="s">
-        <v>59</v>
-      </c>
-      <c r="K4" t="s">
-        <v>60</v>
-      </c>
-      <c r="L4">
-        <v>456789789</v>
-      </c>
+      <c r="F51" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="I51" s="10">
+        <v>3725944249</v>
+      </c>
+      <c r="J51" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="K51" s="10">
+        <v>3</v>
+      </c>
+      <c r="L51" s="10">
+        <v>8884879393</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B52" s="10"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <tableParts count="1">
@@ -1301,17 +5458,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>29</v>
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
